--- a/ACCOUNT_REPORT/Source/WISOL.UI/BANK_STATEMENT.xlsx
+++ b/ACCOUNT_REPORT/Source/WISOL.UI/BANK_STATEMENT.xlsx
@@ -65,9 +65,6 @@
     <t>719139672815/Cuc thue tinh Bac Ninh/TGUI:TNHAN:</t>
   </si>
   <si>
-    <t>Danh mục phân loại</t>
-  </si>
-  <si>
     <t>VND</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -535,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -550,7 +550,7 @@
         <v>2414716654</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>12</v>
